--- a/Install/RSM/DocumentosMedicos/BASE D DATOS 2016 - personal ITH SEGUROS.xlsx
+++ b/Install/RSM/DocumentosMedicos/BASE D DATOS 2016 - personal ITH SEGUROS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc-mt\Documents\GitHub\RSM\Install\RSM\DocumentosMedicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9330" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9336" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE PERSONAL ADM" sheetId="12" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>MACHICHI VALDEZ MARIA DEL CARMEN</t>
   </si>
   <si>
-    <t xml:space="preserve">MAVC730714MSRCLR07                      </t>
-  </si>
-  <si>
     <t>MACPHERSON DUARTE ADALBERTO</t>
   </si>
   <si>
@@ -1910,12 +1907,15 @@
   </si>
   <si>
     <t>ELECTRICA-ELECTRONICA</t>
+  </si>
+  <si>
+    <t>MAVC730714MSRCLR07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2269,9 +2269,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2295,7 +2295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2370,6 +2370,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2405,6 +2422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2580,30 +2614,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="29.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
       <c r="B1" s="34" t="s">
         <v>0</v>
@@ -2617,11 +2651,11 @@
         <v>2</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="44">
         <v>1</v>
       </c>
@@ -2641,11 +2675,11 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H2" s="36"/>
     </row>
-    <row r="3" spans="1:8" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2665,11 +2699,11 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H3" s="36"/>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2689,11 +2723,11 @@
         <v>11</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2713,11 +2747,11 @@
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2737,11 +2771,11 @@
         <v>16</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2761,11 +2795,11 @@
         <v>22</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2785,11 +2819,11 @@
         <v>18</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2809,16 +2843,16 @@
         <v>20</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" s="18">
         <v>1</v>
@@ -2833,16 +2867,16 @@
         <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C11" s="18">
         <v>21</v>
@@ -2857,11 +2891,11 @@
         <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2881,11 +2915,11 @@
         <v>30</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2905,11 +2939,11 @@
         <v>28</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2929,11 +2963,11 @@
         <v>32</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2953,11 +2987,11 @@
         <v>34</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2977,11 +3011,11 @@
         <v>37</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3001,11 +3035,11 @@
         <v>39</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3025,11 +3059,11 @@
         <v>41</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3049,11 +3083,11 @@
         <v>44</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3070,14 +3104,14 @@
         <v>1975</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3097,11 +3131,11 @@
         <v>47</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3121,11 +3155,11 @@
         <v>50</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3145,11 +3179,11 @@
         <v>52</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3169,11 +3203,11 @@
         <v>54</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3193,11 +3227,11 @@
         <v>57</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3217,11 +3251,11 @@
         <v>59</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3241,11 +3275,11 @@
         <v>62</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3265,11 +3299,11 @@
         <v>64</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3289,11 +3323,11 @@
         <v>66</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3313,11 +3347,11 @@
         <v>68</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3337,11 +3371,11 @@
         <v>70</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3361,11 +3395,11 @@
         <v>72</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3385,11 +3419,11 @@
         <v>75</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3409,11 +3443,11 @@
         <v>77</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3433,11 +3467,11 @@
         <v>79</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H35" s="21"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3457,11 +3491,11 @@
         <v>81</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3481,11 +3515,11 @@
         <v>83</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3505,11 +3539,11 @@
         <v>85</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3529,11 +3563,11 @@
         <v>87</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3553,11 +3587,11 @@
         <v>89</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3577,11 +3611,11 @@
         <v>93</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3601,11 +3635,11 @@
         <v>91</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3625,11 +3659,11 @@
         <v>95</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3649,11 +3683,11 @@
         <v>97</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3673,11 +3707,11 @@
         <v>99</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3697,11 +3731,11 @@
         <v>101</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3721,11 +3755,11 @@
         <v>103</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3745,11 +3779,11 @@
         <v>105</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3766,19 +3800,19 @@
         <v>1973</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>107</v>
+        <v>628</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="18">
         <v>25</v>
@@ -3790,19 +3824,19 @@
         <v>1942</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="18">
         <v>12</v>
@@ -3814,43 +3848,43 @@
         <v>1982</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="18">
         <v>18</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="17">
         <v>1972</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H52" s="21"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="18">
         <v>9</v>
@@ -3862,19 +3896,19 @@
         <v>1963</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H53" s="21"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="18">
         <v>21</v>
@@ -3886,19 +3920,19 @@
         <v>1986</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H54" s="21"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="18">
         <v>1</v>
@@ -3910,19 +3944,19 @@
         <v>1961</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="18">
         <v>25</v>
@@ -3934,19 +3968,19 @@
         <v>1978</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H56" s="21"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="18">
         <v>1</v>
@@ -3958,19 +3992,19 @@
         <v>1965</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H57" s="21"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="18">
         <v>3</v>
@@ -3982,19 +4016,19 @@
         <v>1982</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H58" s="21"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="18">
         <v>6</v>
@@ -4006,19 +4040,19 @@
         <v>1969</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="18">
         <v>4</v>
@@ -4030,19 +4064,19 @@
         <v>1969</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C61" s="18">
         <v>11</v>
@@ -4054,19 +4088,19 @@
         <v>1986</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="18">
         <v>25</v>
@@ -4078,19 +4112,19 @@
         <v>1974</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H62" s="21"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C63" s="18">
         <v>16</v>
@@ -4102,19 +4136,19 @@
         <v>1968</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H63" s="21"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="18">
         <v>2</v>
@@ -4126,19 +4160,19 @@
         <v>1965</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H64" s="21"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="18">
         <v>21</v>
@@ -4150,19 +4184,19 @@
         <v>1971</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H65" s="21"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="18">
         <v>17</v>
@@ -4174,43 +4208,43 @@
         <v>1978</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="18">
         <v>27</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E67" s="17">
         <v>1972</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="18">
         <v>3</v>
@@ -4222,19 +4256,19 @@
         <v>1967</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H68" s="21"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="18">
         <v>6</v>
@@ -4246,19 +4280,19 @@
         <v>1992</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H69" s="21"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="18">
         <v>11</v>
@@ -4270,19 +4304,19 @@
         <v>1969</v>
       </c>
       <c r="F70" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H70" s="21"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="18">
         <v>9</v>
@@ -4294,19 +4328,19 @@
         <v>1968</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="18">
         <v>26</v>
@@ -4318,19 +4352,19 @@
         <v>1972</v>
       </c>
       <c r="F72" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H72" s="21"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="18">
         <v>31</v>
@@ -4342,19 +4376,19 @@
         <v>1969</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H73" s="21"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="18">
         <v>11</v>
@@ -4366,19 +4400,19 @@
         <v>1973</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H74" s="21"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="18">
         <v>28</v>
@@ -4390,19 +4424,19 @@
         <v>1989</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="18">
         <v>19</v>
@@ -4414,19 +4448,19 @@
         <v>1979</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" s="18">
         <v>10</v>
@@ -4438,19 +4472,19 @@
         <v>1964</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="18">
         <v>7</v>
@@ -4462,19 +4496,19 @@
         <v>1968</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="18">
         <v>23</v>
@@ -4486,19 +4520,19 @@
         <v>1959</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" s="18">
         <v>22</v>
@@ -4510,19 +4544,19 @@
         <v>1966</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H80" s="21"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" s="18">
         <v>11</v>
@@ -4534,19 +4568,19 @@
         <v>1953</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" s="18">
         <v>28</v>
@@ -4558,19 +4592,19 @@
         <v>1978</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H82" s="21"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" s="18">
         <v>28</v>
@@ -4582,19 +4616,19 @@
         <v>1967</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H83" s="21"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84" s="18">
         <v>10</v>
@@ -4606,74 +4640,74 @@
         <v>1965</v>
       </c>
       <c r="F84" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H84" s="21"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="18">
         <v>26</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E85" s="17">
         <v>1981</v>
       </c>
       <c r="F85" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H85" s="21"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -4692,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -4702,25 +4736,25 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="54"/>
       <c r="E1" s="55"/>
@@ -4728,38 +4762,38 @@
         <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="11">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="11">
         <v>1978</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="11">
         <v>24</v>
@@ -4771,225 +4805,225 @@
         <v>1953</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="11">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="11">
         <v>1966</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="11">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="11">
         <v>1961</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="11">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="11">
         <v>1952</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="11">
         <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="11">
         <v>1955</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C8" s="11">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="11">
         <v>1952</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="11">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="11">
         <v>1966</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="11">
         <v>1971</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="11">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="11">
         <v>1973</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="11">
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E12" s="11">
         <v>1977</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="5">
         <v>17</v>
@@ -5001,18 +5035,18 @@
         <v>1970</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C14" s="5">
         <v>8</v>
@@ -5024,18 +5058,18 @@
         <v>1971</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="5">
         <v>28</v>
@@ -5047,18 +5081,18 @@
         <v>1953</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="5">
         <v>28</v>
@@ -5070,41 +5104,41 @@
         <v>1959</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="5">
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="11">
         <v>1966</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="5">
         <v>21</v>
@@ -5116,18 +5150,18 @@
         <v>1970</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="5">
         <v>11</v>
@@ -5139,18 +5173,18 @@
         <v>1972</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -5162,87 +5196,87 @@
         <v>1961</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="5">
         <v>28</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="11">
         <v>1954</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="5">
         <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="11">
         <v>1964</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="5">
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="11">
         <v>1978</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="5">
         <v>10</v>
@@ -5254,18 +5288,18 @@
         <v>1695</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="5">
         <v>18</v>
@@ -5277,18 +5311,18 @@
         <v>1953</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C26" s="5">
         <v>28</v>
@@ -5300,18 +5334,18 @@
         <v>1956</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="5">
         <v>12</v>
@@ -5323,18 +5357,18 @@
         <v>1948</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="5">
         <v>23</v>
@@ -5346,41 +5380,41 @@
         <v>1965</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="5">
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E29" s="11">
         <v>1981</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="5">
         <v>28</v>
@@ -5392,18 +5426,18 @@
         <v>1977</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="5">
         <v>5</v>
@@ -5415,18 +5449,18 @@
         <v>1951</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="5">
         <v>10</v>
@@ -5438,18 +5472,18 @@
         <v>1942</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="5">
         <v>18</v>
@@ -5461,41 +5495,41 @@
         <v>1975</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="11">
         <v>1972</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" s="5">
         <v>26</v>
@@ -5507,41 +5541,41 @@
         <v>1967</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="5">
         <v>20</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36" s="11">
         <v>1958</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" s="5">
         <v>13</v>
@@ -5553,18 +5587,18 @@
         <v>1972</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" s="5">
         <v>3</v>
@@ -5576,18 +5610,18 @@
         <v>1982</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C39" s="5">
         <v>18</v>
@@ -5599,18 +5633,18 @@
         <v>1967</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -5622,18 +5656,18 @@
         <v>1963</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
@@ -5645,18 +5679,18 @@
         <v>1981</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="5">
         <v>11</v>
@@ -5668,41 +5702,41 @@
         <v>1965</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" s="5">
         <v>17</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="11">
         <v>1962</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C44" s="5">
         <v>30</v>
@@ -5714,18 +5748,18 @@
         <v>1975</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="5">
         <v>9</v>
@@ -5737,18 +5771,18 @@
         <v>1986</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" s="5">
         <v>7</v>
@@ -5760,18 +5794,18 @@
         <v>1949</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C47" s="5">
         <v>20</v>
@@ -5783,18 +5817,18 @@
         <v>1967</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="5">
         <v>27</v>
@@ -5806,18 +5840,18 @@
         <v>1957</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C49" s="5">
         <v>26</v>
@@ -5829,18 +5863,18 @@
         <v>1957</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C50" s="5">
         <v>31</v>
@@ -5852,18 +5886,18 @@
         <v>1954</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C51" s="5">
         <v>29</v>
@@ -5875,18 +5909,18 @@
         <v>1980</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C52" s="5">
         <v>27</v>
@@ -5898,64 +5932,64 @@
         <v>1960</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="11">
         <v>1966</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C54" s="5">
         <v>16</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E54" s="11">
         <v>1962</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C55" s="5">
         <v>26</v>
@@ -5967,18 +6001,18 @@
         <v>1974</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="5">
         <v>14</v>
@@ -5990,18 +6024,18 @@
         <v>1940</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C57" s="5">
         <v>31</v>
@@ -6013,18 +6047,18 @@
         <v>1961</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C58" s="5">
         <v>3</v>
@@ -6036,18 +6070,18 @@
         <v>1973</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C59" s="5">
         <v>28</v>
@@ -6059,18 +6093,18 @@
         <v>1950</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C60" s="5">
         <v>17</v>
@@ -6082,41 +6116,41 @@
         <v>1956</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C61" s="5">
         <v>27</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" s="11">
         <v>1960</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" s="5">
         <v>22</v>
@@ -6128,41 +6162,41 @@
         <v>1962</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C63" s="5">
         <v>12</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" s="11">
         <v>1949</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C64" s="5">
         <v>24</v>
@@ -6174,24 +6208,24 @@
         <v>1953</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" s="5">
         <v>26</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" s="11">
         <v>1971</v>
@@ -6200,38 +6234,38 @@
         <v>73</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C66" s="5">
         <v>2</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E66" s="11">
         <v>1965</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C67" s="5">
         <v>19</v>
@@ -6243,18 +6277,18 @@
         <v>1978</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C68" s="5">
         <v>18</v>
@@ -6266,18 +6300,18 @@
         <v>1964</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C69" s="5">
         <v>16</v>
@@ -6289,133 +6323,133 @@
         <v>1962</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70" s="5">
         <v>29</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="11">
         <v>1969</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C71" s="5">
         <v>13</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E71" s="11">
         <v>1982</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C72" s="5">
         <v>2</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" s="11">
         <v>1987</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C73" s="5">
         <v>21</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="11">
         <v>1978</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" s="5">
         <v>19</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74" s="11">
         <v>1969</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C75" s="5">
         <v>31</v>
@@ -6427,18 +6461,18 @@
         <v>1950</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C76" s="5">
         <v>11</v>
@@ -6450,18 +6484,18 @@
         <v>1952</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C77" s="5">
         <v>7</v>
@@ -6473,41 +6507,41 @@
         <v>1961</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C78" s="5">
         <v>28</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="11">
         <v>1977</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" s="5">
         <v>16</v>
@@ -6519,64 +6553,64 @@
         <v>1964</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C80" s="5">
         <v>6</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E80" s="11">
         <v>1969</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C81" s="5">
         <v>30</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E81" s="11">
         <v>1970</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" s="5">
         <v>13</v>
@@ -6588,18 +6622,18 @@
         <v>1967</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
@@ -6611,64 +6645,64 @@
         <v>1974</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C84" s="5">
         <v>12</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E84" s="11">
         <v>1956</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C85" s="5">
         <v>30</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E85" s="11">
         <v>1964</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C86" s="5">
         <v>25</v>
@@ -6680,18 +6714,18 @@
         <v>1977</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C87" s="5">
         <v>9</v>
@@ -6703,18 +6737,18 @@
         <v>1982</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C88" s="5">
         <v>26</v>
@@ -6726,41 +6760,41 @@
         <v>1962</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C89" s="5">
         <v>20</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89" s="11">
         <v>1948</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C90" s="5">
         <v>16</v>
@@ -6772,18 +6806,18 @@
         <v>1961</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C91" s="5">
         <v>16</v>
@@ -6795,18 +6829,18 @@
         <v>1983</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C92" s="5">
         <v>22</v>
@@ -6818,41 +6852,41 @@
         <v>1961</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C93" s="5">
         <v>21</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E93" s="11">
         <v>1957</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C94" s="5">
         <v>27</v>
@@ -6864,41 +6898,41 @@
         <v>1959</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C95" s="5">
         <v>19</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" s="11">
         <v>1954</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C96" s="5">
         <v>2</v>
@@ -6910,18 +6944,18 @@
         <v>1951</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C97" s="5">
         <v>4</v>
@@ -6933,18 +6967,18 @@
         <v>1969</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C98" s="5">
         <v>19</v>
@@ -6956,18 +6990,18 @@
         <v>1971</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C99" s="5">
         <v>13</v>
@@ -6979,18 +7013,18 @@
         <v>1964</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C100" s="5">
         <v>3</v>
@@ -7002,41 +7036,41 @@
         <v>1970</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C101" s="5">
         <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E101" s="11">
         <v>1968</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C102" s="5">
         <v>31</v>
@@ -7048,18 +7082,18 @@
         <v>1963</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C103" s="5">
         <v>4</v>
@@ -7071,41 +7105,41 @@
         <v>1958</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C104" s="5">
         <v>19</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" s="11">
         <v>1954</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C105" s="5">
         <v>30</v>
@@ -7117,64 +7151,64 @@
         <v>1980</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C106" s="5">
         <v>8</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E106" s="11">
         <v>1955</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" s="5">
         <v>4</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E107" s="11">
         <v>1983</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C108" s="5">
         <v>25</v>
@@ -7186,41 +7220,41 @@
         <v>1956</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C109" s="5">
         <v>1</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E109" s="11">
         <v>1956</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>109</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C110" s="5">
         <v>21</v>
@@ -7232,18 +7266,18 @@
         <v>1978</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>110</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C111" s="5">
         <v>5</v>
@@ -7255,18 +7289,18 @@
         <v>1967</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>111</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C112" s="5">
         <v>31</v>
@@ -7278,41 +7312,41 @@
         <v>1963</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>112</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C113" s="5">
         <v>13</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E113" s="11">
         <v>1971</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>113</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C114" s="5">
         <v>8</v>
@@ -7324,18 +7358,18 @@
         <v>1959</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>114</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C115" s="5">
         <v>28</v>
@@ -7347,133 +7381,133 @@
         <v>1975</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>115</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C116" s="5">
         <v>29</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E116" s="11">
         <v>1978</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>116</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C117" s="5">
         <v>19</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E117" s="11">
         <v>1963</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>117</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C118" s="5">
         <v>9</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E118" s="28">
         <v>1959</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>118</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C119" s="5">
         <v>19</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E119" s="28">
         <v>1958</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>119</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C120" s="5">
         <v>14</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E120" s="11">
         <v>1959</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>120</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C121" s="5">
         <v>11</v>
@@ -7485,18 +7519,18 @@
         <v>1976</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C122" s="5">
         <v>16</v>
@@ -7508,18 +7542,18 @@
         <v>1967</v>
       </c>
       <c r="F122" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>122</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C123" s="5">
         <v>2</v>
@@ -7531,18 +7565,18 @@
         <v>1956</v>
       </c>
       <c r="F123" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C124" s="5">
         <v>5</v>
@@ -7554,18 +7588,18 @@
         <v>1969</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>124</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C125" s="5">
         <v>21</v>
@@ -7577,18 +7611,18 @@
         <v>1969</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>125</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C126" s="5">
         <v>2</v>
@@ -7600,41 +7634,41 @@
         <v>1979</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>126</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C127" s="5">
         <v>11</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E127" s="11">
         <v>1966</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>127</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C128" s="5">
         <v>11</v>
@@ -7646,41 +7680,41 @@
         <v>1949</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>128</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C129" s="5">
         <v>10</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E129" s="11">
         <v>1957</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>129</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C130" s="5">
         <v>10</v>
@@ -7692,64 +7726,64 @@
         <v>1964</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>130</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C131" s="5">
         <v>2</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131" s="11">
         <v>1965</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>131</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C132" s="5">
         <v>4</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E132" s="11">
         <v>1966</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>132</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C133" s="5">
         <v>27</v>
@@ -7761,64 +7795,64 @@
         <v>1964</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>133</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C134" s="5">
         <v>2</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E134" s="11">
         <v>1959</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C135" s="5">
         <v>2</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E135" s="11">
         <v>1950</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>135</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C136" s="5">
         <v>5</v>
@@ -7830,10 +7864,10 @@
         <v>1984</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -7841,7 +7875,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C137" s="5">
         <v>27</v>
@@ -7853,64 +7887,64 @@
         <v>1944</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>137</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C138" s="5">
         <v>5</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E138" s="28">
         <v>1976</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>138</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C139" s="5">
         <v>20</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E139" s="11">
         <v>1960</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>139</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C140" s="5">
         <v>24</v>
@@ -7922,18 +7956,18 @@
         <v>1961</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>140</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C141" s="5">
         <v>11</v>
@@ -7945,18 +7979,18 @@
         <v>1952</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>141</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C142" s="7">
         <v>14</v>
@@ -7968,41 +8002,41 @@
         <v>1971</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>142</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C143" s="5">
         <v>12</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E143" s="11">
         <v>1974</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>143</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C144" s="5">
         <v>7</v>
@@ -8014,18 +8048,18 @@
         <v>1966</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C145" s="5">
         <v>8</v>
@@ -8037,18 +8071,18 @@
         <v>1948</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C146" s="5">
         <v>10</v>
@@ -8060,64 +8094,64 @@
         <v>1980</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C147" s="5">
         <v>15</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E147" s="11">
         <v>1980</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>147</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C148" s="5">
         <v>15</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E148" s="28">
         <v>1955</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>148</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C149" s="5">
         <v>16</v>
@@ -8129,87 +8163,87 @@
         <v>1954</v>
       </c>
       <c r="F149" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>149</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C150" s="5">
         <v>11</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E150" s="28">
         <v>1977</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>150</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C151" s="5">
         <v>20</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E151" s="11">
         <v>1958</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>151</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C152" s="5">
         <v>2</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E152" s="11">
         <v>1966</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>152</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C153" s="5">
         <v>24</v>
@@ -8221,41 +8255,41 @@
         <v>1970</v>
       </c>
       <c r="F153" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>153</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C154" s="5">
         <v>2</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E154" s="11">
         <v>1971</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>154</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C155" s="5">
         <v>9</v>
@@ -8267,18 +8301,18 @@
         <v>1981</v>
       </c>
       <c r="F155" s="48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>155</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C156" s="5">
         <v>12</v>
@@ -8290,18 +8324,18 @@
         <v>1949</v>
       </c>
       <c r="F156" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>156</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C157" s="5">
         <v>21</v>
@@ -8313,18 +8347,18 @@
         <v>1965</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>157</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C158" s="5">
         <v>4</v>
@@ -8336,41 +8370,41 @@
         <v>1956</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>158</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C159" s="5">
         <v>24</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E159" s="11">
         <v>1960</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>159</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C160" s="5">
         <v>18</v>
@@ -8382,18 +8416,18 @@
         <v>1971</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>160</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C161" s="5">
         <v>10</v>
@@ -8405,18 +8439,18 @@
         <v>1974</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>161</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C162" s="5">
         <v>26</v>
@@ -8428,133 +8462,133 @@
         <v>1976</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>162</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C163" s="5">
         <v>27</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E163" s="11">
         <v>1959</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>163</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C164" s="5">
         <v>11</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E164" s="11">
         <v>1955</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>164</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C165" s="5">
         <v>14</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E165" s="11">
         <v>1976</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>165</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C166" s="5">
         <v>3</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E166" s="11">
         <v>1976</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>166</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C167" s="5">
         <v>26</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E167" s="11">
         <v>1970</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C168" s="5">
         <v>13</v>
@@ -8566,41 +8600,41 @@
         <v>1954</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C169" s="5">
         <v>2</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E169" s="11">
         <v>1969</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>169</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C170" s="5">
         <v>22</v>
@@ -8612,18 +8646,18 @@
         <v>1956</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>170</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C171" s="5">
         <v>3</v>
@@ -8635,18 +8669,18 @@
         <v>1969</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>171</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C172" s="5">
         <v>13</v>
@@ -8658,18 +8692,18 @@
         <v>1961</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>172</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C173" s="5">
         <v>20</v>
@@ -8681,87 +8715,87 @@
         <v>1983</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>173</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C174" s="5">
         <v>12</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E174" s="11">
         <v>1975</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>174</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C175" s="5">
         <v>12</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E175" s="11">
         <v>1968</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>175</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C176" s="5">
         <v>3</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E176" s="11">
         <v>1971</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>176</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C177" s="5">
         <v>15</v>
@@ -8773,64 +8807,64 @@
         <v>1965</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>177</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C178" s="5">
         <v>14</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E178" s="11">
         <v>1965</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>178</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C179" s="5">
         <v>16</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E179" s="11">
         <v>1960</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>179</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C180" s="5">
         <v>24</v>
@@ -8842,18 +8876,18 @@
         <v>1964</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C181" s="5">
         <v>3</v>
@@ -8865,18 +8899,18 @@
         <v>1972</v>
       </c>
       <c r="F181" s="48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>181</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C182" s="5">
         <v>18</v>
@@ -8888,18 +8922,18 @@
         <v>1955</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>182</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C183" s="5">
         <v>12</v>
@@ -8911,18 +8945,18 @@
         <v>1964</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>183</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C184" s="5">
         <v>17</v>
@@ -8934,18 +8968,18 @@
         <v>1969</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>184</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C185" s="5">
         <v>5</v>
@@ -8957,41 +8991,41 @@
         <v>1955</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>185</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C186" s="5">
         <v>14</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E186" s="11">
         <v>1969</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>186</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C187" s="5">
         <v>20</v>
@@ -9003,18 +9037,18 @@
         <v>1962</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>187</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C188" s="5">
         <v>7</v>
@@ -9026,64 +9060,64 @@
         <v>1969</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>188</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C189" s="5">
         <v>4</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E189" s="11">
         <v>1961</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>189</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C190" s="5">
         <v>5</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E190" s="11">
         <v>1951</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>190</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C191" s="5">
         <v>31</v>
@@ -9095,41 +9129,41 @@
         <v>1964</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>191</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C192" s="5">
         <v>5</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E192" s="11">
         <v>1957</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>192</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C193" s="5">
         <v>11</v>
@@ -9141,64 +9175,64 @@
         <v>1971</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>193</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C194" s="5">
         <v>28</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E194" s="11">
         <v>1966</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>194</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C195" s="5">
         <v>5</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E195" s="11">
         <v>1951</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>195</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C196" s="5">
         <v>10</v>
@@ -9210,18 +9244,18 @@
         <v>1980</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>196</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C197" s="5">
         <v>24</v>
@@ -9233,18 +9267,18 @@
         <v>1973</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>197</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C198" s="5">
         <v>19</v>
@@ -9256,41 +9290,41 @@
         <v>1966</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>198</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C199" s="5">
         <v>14</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E199" s="11">
         <v>1958</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C200" s="5">
         <v>1</v>
@@ -9302,18 +9336,18 @@
         <v>1964</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>200</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C201" s="5">
         <v>29</v>
@@ -9325,18 +9359,18 @@
         <v>1954</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>201</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C202" s="5">
         <v>23</v>
@@ -9348,18 +9382,18 @@
         <v>1969</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>202</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C203" s="5">
         <v>9</v>
@@ -9371,64 +9405,64 @@
         <v>1970</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>203</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C204" s="5">
         <v>3</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E204" s="11">
         <v>1948</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>204</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C205" s="5">
         <v>4</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E205" s="11">
         <v>1962</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>205</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C206" s="5">
         <v>2</v>
@@ -9440,64 +9474,64 @@
         <v>1949</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>206</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C207" s="5">
         <v>9</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E207" s="11">
         <v>1984</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>207</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C208" s="5">
         <v>23</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E208" s="11">
         <v>1961</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C209" s="5">
         <v>27</v>
@@ -9509,10 +9543,10 @@
         <v>1957</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
